--- a/biology/Zoologie/Bathyraja/Bathyraja.xlsx
+++ b/biology/Zoologie/Bathyraja/Bathyraja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyraja est un genre de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bathyraja est caractérisé par un disque rhomboïdal (en forme de quadrilatère losange) et une queue ne dépassant pas la largeur maximale du disque corporel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bathyraja est caractérisé par un disque rhomboïdal (en forme de quadrilatère losange) et une queue ne dépassant pas la largeur maximale du disque corporel.
 </t>
         </is>
       </c>
@@ -542,16 +556,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja Ishiyama, 1958[2],[3].
-Synonymie
-Bathyraja a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja Ishiyama, 1958,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bathyraja</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bathyraja a pour synonymes :
 Bathyraja Ishyama &amp; Hubbs, 1968
 Etaraia Leigh-Sharpe, 1924
-Zetaraia Leigh-Sharpe, 1924
-Liste des espèces
-Selon le World Register of Marine Species                               (27 juillet 2023)[3], ce genre compte les espèces suivantes :
+Zetaraia Leigh-Sharpe, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bathyraja</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (27 juillet 2023), ce genre compte les espèces suivantes :
 Bathyraja abyssicola (Gilbert, 1896)
 Bathyraja aguja (Kendall (d) &amp; Radcliffe, 1912)
 Bathyraja albomaculata (Norman, 1937)
@@ -608,7 +693,7 @@
 Bathyraja tunae Stehmann, 2005
 Bathyraja tzinovskii Dolganov, 1983
 Bathyraja violacea (Suvorov, 1935)
-Trois espèces présentes dans d'autres bases de données dont GBIF       (26 juillet 2023)[2], ne sont plus présentes dans la dernière mouture du WoRMS :
+Trois espèces présentes dans d'autres bases de données dont GBIF       (26 juillet 2023), ne sont plus présentes dans la dernière mouture du WoRMS :
 Bathyraja hubbsi Ishihara et Ishiyama, 1985
 Bathyraja parmifera (Bean, 1881)
 Bathyraja simoterus (Ishiyama, 1967)
